--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cfgadmin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +296,43 @@
   </si>
   <si>
     <t>wrongpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_null_all</t>
+  </si>
+  <si>
+    <t>test_null_username</t>
+  </si>
+  <si>
+    <t>test_null_password</t>
+  </si>
+  <si>
+    <t>test_null_security</t>
+  </si>
+  <si>
+    <t>test_username_wrong</t>
+  </si>
+  <si>
+    <t>test_user_lock</t>
+  </si>
+  <si>
+    <t>test_z_success_login</t>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_z_success_logout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -496,6 +529,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,10 +863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -838,6 +874,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -865,8 +902,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
@@ -875,45 +912,57 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
+      <c r="E2" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="20"/>
       <c r="B3" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="G3" t="s">
         <v>62</v>
       </c>
-      <c r="H3">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
       <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="F4" t="s">
         <v>63</v>
       </c>
-      <c r="H4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
+      <c r="E5" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="F5" t="s">
         <v>63</v>
       </c>
@@ -922,7 +971,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -932,57 +981,64 @@
       <c r="D6" s="18" t="s">
         <v>56</v>
       </c>
+      <c r="E6" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
         <v>64</v>
       </c>
-      <c r="H6">
-        <v>1234</v>
+      <c r="H6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>57</v>
       </c>
+      <c r="E7" s="18"/>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
+      <c r="E8" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="F8" t="s">
         <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8">
-        <v>1234</v>
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>50</v>
       </c>
@@ -992,14 +1048,25 @@
       <c r="D9" s="18" t="s">
         <v>58</v>
       </c>
+      <c r="E9" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="F9" t="s">
         <v>65</v>
       </c>
       <c r="G9" t="s">
         <v>66</v>
       </c>
-      <c r="H9">
-        <v>1234</v>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1106,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1053,7 +1120,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1065,7 +1132,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1144,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1156,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1099,7 +1166,7 @@
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1176,7 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1186,7 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1129,7 +1196,7 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
@@ -1139,7 +1206,7 @@
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1151,7 +1218,7 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
@@ -1161,7 +1228,7 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
@@ -1173,7 +1240,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="13" t="s">
         <v>21</v>
       </c>
@@ -1185,7 +1252,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -1195,7 +1262,7 @@
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="14" t="s">
         <v>24</v>
       </c>
@@ -1207,7 +1274,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -1217,7 +1284,7 @@
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="15" t="s">
         <v>34</v>
       </c>
@@ -1225,7 +1292,7 @@
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="17" t="s">
         <v>35</v>
       </c>
@@ -1233,7 +1300,7 @@
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -1245,7 +1312,7 @@
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="15" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1322,7 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="17" t="s">
         <v>39</v>
       </c>

--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,157 +178,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>test_add_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部不填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF/UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法I/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_wrong_username</t>
+  </si>
+  <si>
+    <t>test_wrong_password</t>
+  </si>
+  <si>
+    <t>test_right</t>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfgadmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfgadmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfgadmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfgadmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wronguser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrongpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_null_all</t>
+  </si>
+  <si>
+    <t>test_null_username</t>
+  </si>
+  <si>
+    <t>test_null_password</t>
+  </si>
+  <si>
+    <t>test_null_security</t>
+  </si>
+  <si>
+    <t>test_username_wrong</t>
+  </si>
+  <si>
+    <t>test_user_lock</t>
+  </si>
+  <si>
+    <t>test_z_success_login</t>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_z_success_logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_null_query</t>
+  </si>
+  <si>
+    <t>test_turn_page</t>
+  </si>
+  <si>
+    <t>test_add_null_name</t>
+  </si>
+  <si>
     <t>test_succees_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_add_model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部不填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF/UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法I/F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_wrong_username</t>
-  </si>
-  <si>
-    <t>test_wrong_password</t>
-  </si>
-  <si>
-    <t>test_right</t>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>security</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cfgadmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cfgadmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cfgadmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cfgadmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wronguser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrongpwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_null_all</t>
-  </si>
-  <si>
-    <t>test_null_username</t>
-  </si>
-  <si>
-    <t>test_null_password</t>
-  </si>
-  <si>
-    <t>test_null_security</t>
-  </si>
-  <si>
-    <t>test_username_wrong</t>
-  </si>
-  <si>
-    <t>test_user_lock</t>
-  </si>
-  <si>
-    <t>test_z_success_login</t>
-  </si>
-  <si>
-    <t>登出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_z_success_logout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,43 +390,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -494,11 +466,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,44 +515,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -880,193 +914,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="18"/>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
+      <c r="B4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
+      <c r="B5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="18"/>
+      <c r="B8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
         <v>63</v>
       </c>
-      <c r="H4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H9" t="s">
         <v>70</v>
       </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="18" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="29" t="s">
         <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1081,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1092,9 +1135,10 @@
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1102,236 +1146,272 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="18"/>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="18"/>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
+      <c r="B17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="17" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
+      <c r="B20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="C20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="15" t="s">
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改名称为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>型号相同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,6 +339,18 @@
   <si>
     <t>test_succees_delete</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_success_manu</t>
+  </si>
+  <si>
+    <t>test_add_success_model</t>
+  </si>
+  <si>
+    <t>test_add_repeat_model</t>
+  </si>
+  <si>
+    <t>test_update_repeat_model</t>
   </si>
 </sst>
 </file>
@@ -531,28 +539,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -578,6 +576,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,202 +924,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="17" t="s">
-        <v>71</v>
+      <c r="E2" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="19" t="s">
-        <v>72</v>
+      <c r="E3" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
         <v>61</v>
       </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="28"/>
+      <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="19" t="s">
+      <c r="D6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
         <v>61</v>
       </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="10" t="s">
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="28"/>
+      <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="C7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
         <v>67</v>
       </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="H7" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="29"/>
+      <c r="B9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="29" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1124,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,10 +1145,11 @@
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1146,14 +1157,14 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1162,52 +1173,52 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="28"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="28"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1215,12 +1226,12 @@
         <v>12</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
+      <c r="E6" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="28"/>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1228,12 +1239,12 @@
         <v>12</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
+      <c r="E7" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="28"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1241,12 +1252,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
+      <c r="E8" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="28"/>
       <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
@@ -1254,12 +1265,12 @@
         <v>12</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="E9" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="29"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1269,8 +1280,8 @@
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1280,12 +1291,12 @@
         <v>12</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
+      <c r="E11" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1293,132 +1304,134 @@
         <v>24</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
+      <c r="E12" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>40</v>
+      <c r="D14" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="29"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="A20" s="28"/>
       <c r="B20" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
+      <c r="B21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="8"/>
+      <c r="D21" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,18 @@
   </si>
   <si>
     <t>test_update_repeat_model</t>
+  </si>
+  <si>
+    <t>test_update_success</t>
+  </si>
+  <si>
+    <t>test_z_delete_cancel</t>
+  </si>
+  <si>
+    <t>test_z_delete_success</t>
+  </si>
+  <si>
+    <t>test_z_delete_used</t>
   </si>
 </sst>
 </file>
@@ -577,6 +589,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,9 +600,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,7 +922,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -948,7 +960,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -963,7 +975,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
@@ -982,7 +994,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
@@ -1001,7 +1013,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
@@ -1020,7 +1032,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
@@ -1044,7 +1056,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1066,7 +1078,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="10" t="s">
         <v>48</v>
       </c>
@@ -1088,7 +1100,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="11" t="s">
         <v>47</v>
       </c>
@@ -1136,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1164,7 +1176,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1179,7 +1191,7 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1204,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1217,7 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1230,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1231,7 +1243,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1256,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1257,7 +1269,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1282,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1281,7 +1293,7 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1296,7 +1308,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1309,7 +1321,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1334,7 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1335,7 +1347,7 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1351,7 +1363,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -1364,7 +1376,7 @@
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1378,19 +1390,21 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
+      <c r="E18" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1400,10 +1414,12 @@
         <v>38</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
+      <c r="E19" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="29"/>
       <c r="B20" s="12" t="s">
         <v>36</v>
       </c>
@@ -1411,10 +1427,12 @@
         <v>38</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="16" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
       </c>
@@ -1424,7 +1442,9 @@
       <c r="D21" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="19" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
     <sheet name="登录" sheetId="3" r:id="rId2"/>
     <sheet name="厂商管理" sheetId="2" r:id="rId3"/>
+    <sheet name="重点关注" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +364,34 @@
   </si>
   <si>
     <t>test_z_delete_used</t>
+  </si>
+  <si>
+    <t>关注分类为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏洞级别为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同分类名称相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同分类名称相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1148,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1457,4 +1486,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="29"/>
+      <c r="B3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="29"/>
+      <c r="B4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="29"/>
+      <c r="B5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+      <c r="B6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="30"/>
+      <c r="B7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="29"/>
+      <c r="B9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="29"/>
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="30"/>
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="30"/>
+      <c r="B15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,12 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_add_success_manu</t>
-  </si>
-  <si>
-    <t>test_add_success_model</t>
-  </si>
-  <si>
     <t>test_add_repeat_model</t>
   </si>
   <si>
@@ -391,6 +385,138 @@
   </si>
   <si>
     <t>精确查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_query_all</t>
+  </si>
+  <si>
+    <t>test_query_exact</t>
+  </si>
+  <si>
+    <t>test_query_null</t>
+  </si>
+  <si>
+    <t>test_add_attention</t>
+  </si>
+  <si>
+    <t>test_update_attention</t>
+  </si>
+  <si>
+    <t>test_success_delete</t>
+  </si>
+  <si>
+    <t>重点关注名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病毒类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏洞级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试UI添加重点关注</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>test_add_repeat</t>
+  </si>
+  <si>
+    <t>test_add_success</t>
+  </si>
+  <si>
+    <t>test_add_cancel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分类漏洞为空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试添加重点关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>流行病毒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_null_other</t>
+  </si>
+  <si>
+    <t>test_update_repeat</t>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_success_manu
+test_add_success_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_z_delete_cancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +541,29 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF00B050"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -556,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -629,6 +778,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -964,7 +1140,7 @@
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -978,17 +1154,20 @@
       <c r="E1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
         <v>40</v>
       </c>
@@ -1002,8 +1181,14 @@
       <c r="E2" s="15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F2" s="35"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="6"/>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="29"/>
       <c r="B3" s="10" t="s">
         <v>42</v>
@@ -1015,14 +1200,18 @@
       <c r="E3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="10" t="s">
         <v>43</v>
@@ -1034,14 +1223,18 @@
       <c r="E4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="10" t="s">
         <v>44</v>
@@ -1053,14 +1246,18 @@
       <c r="E5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H5" s="6"/>
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="10" t="s">
         <v>45</v>
@@ -1074,17 +1271,20 @@
       <c r="E6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="10" t="s">
         <v>46</v>
@@ -1096,17 +1296,20 @@
         <v>54</v>
       </c>
       <c r="E7" s="16"/>
-      <c r="F7" t="s">
+      <c r="F7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="10" t="s">
         <v>48</v>
@@ -1118,17 +1321,20 @@
       <c r="E8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="11" t="s">
         <v>47</v>
@@ -1142,17 +1348,20 @@
       <c r="E9" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>77</v>
       </c>
@@ -1162,6 +1371,9 @@
       <c r="E10" s="25" t="s">
         <v>78</v>
       </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1178,16 +1390,17 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -1203,6 +1416,9 @@
       <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
@@ -1218,6 +1434,9 @@
         <v>15</v>
       </c>
       <c r="E2" s="4"/>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="29"/>
@@ -1231,6 +1450,9 @@
         <v>25</v>
       </c>
       <c r="E3" s="6"/>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -1244,6 +1466,9 @@
         <v>26</v>
       </c>
       <c r="E4" s="6"/>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
@@ -1257,6 +1482,9 @@
         <v>27</v>
       </c>
       <c r="E5" s="6"/>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
@@ -1270,6 +1498,9 @@
       <c r="E6" s="16" t="s">
         <v>80</v>
       </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
@@ -1283,6 +1514,9 @@
       <c r="E7" s="16" t="s">
         <v>81</v>
       </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
@@ -1296,6 +1530,9 @@
       <c r="E8" s="16" t="s">
         <v>81</v>
       </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
@@ -1309,6 +1546,9 @@
       <c r="E9" s="16" t="s">
         <v>81</v>
       </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
@@ -1320,6 +1560,9 @@
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="28" t="s">
@@ -1334,6 +1577,9 @@
       <c r="D11" s="9"/>
       <c r="E11" s="15" t="s">
         <v>82</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1346,7 +1592,10 @@
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1361,6 +1610,9 @@
         <v>28</v>
       </c>
       <c r="E13" s="6"/>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="29"/>
@@ -1374,8 +1626,11 @@
         <v>39</v>
       </c>
       <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -1384,11 +1639,11 @@
         <v>22</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>85</v>
+      <c r="E15" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="40">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1403,8 +1658,11 @@
         <v>30</v>
       </c>
       <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="28" t="s">
         <v>31</v>
       </c>
@@ -1416,10 +1674,13 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="13" t="s">
         <v>33</v>
@@ -1429,10 +1690,13 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="F18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="29" t="s">
         <v>34</v>
       </c>
@@ -1444,10 +1708,13 @@
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="F19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="29"/>
       <c r="B20" s="12" t="s">
         <v>36</v>
@@ -1457,10 +1724,13 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="F20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
@@ -1472,7 +1742,10 @@
         <v>83</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1490,34 +1763,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
@@ -1527,89 +1836,223 @@
       <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="6"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="29"/>
       <c r="B3" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="16"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E6" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="30"/>
       <c r="B7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="6"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="6"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="10" t="s">
         <v>5</v>
@@ -1617,10 +2060,23 @@
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="6"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="11" t="s">
         <v>6</v>
@@ -1628,34 +2084,80 @@
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D11" s="31"/>
+      <c r="E11" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="6"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D12" s="32"/>
+      <c r="E12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="J12" s="6"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>34</v>
       </c>
@@ -1665,10 +2167,31 @@
       <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D14" s="33"/>
+      <c r="E14" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="35"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="13" t="s">
         <v>37</v>
@@ -1676,8 +2199,31 @@
       <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="37"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="152">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,12 +519,146 @@
     <t>test_z_delete_cancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>测试接口I/F添加重点关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试添加重点关注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试添加test_add</t>
+  </si>
+  <si>
+    <t>测试添加test_add描述</t>
+  </si>
+  <si>
+    <t>H3C</t>
+  </si>
+  <si>
+    <t>型号1</t>
+  </si>
+  <si>
+    <t>微软</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>test厂商add1</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test厂商描述1</t>
+  </si>
+  <si>
+    <t>test厂商add2</t>
+  </si>
+  <si>
+    <t>test厂商描述2</t>
+  </si>
+  <si>
+    <t>test型号add1</t>
+  </si>
+  <si>
+    <t>添加直接保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test型号add2</t>
+  </si>
+  <si>
+    <t>C00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test厂商描述3</t>
+  </si>
+  <si>
+    <r>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厂商</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>up3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改型号test1</t>
+  </si>
+  <si>
+    <t>test型号修改2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>修改已有型号的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +698,12 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF00B050"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFA9B7C6"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -705,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,15 +910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -797,15 +928,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1154,7 +1321,7 @@
       <c r="E1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="31" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -1168,7 +1335,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1181,7 +1348,7 @@
       <c r="E2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="35"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="10"/>
       <c r="H2" s="6"/>
       <c r="I2">
@@ -1189,7 +1356,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
@@ -1200,7 +1367,7 @@
       <c r="E3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="10" t="s">
         <v>59</v>
       </c>
@@ -1212,7 +1379,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
@@ -1223,7 +1390,7 @@
       <c r="E4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="10"/>
@@ -1235,7 +1402,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
@@ -1246,7 +1413,7 @@
       <c r="E5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -1258,7 +1425,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
@@ -1271,7 +1438,7 @@
       <c r="E6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="32" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -1285,7 +1452,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1296,7 +1463,7 @@
         <v>54</v>
       </c>
       <c r="E7" s="16"/>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="32" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -1310,7 +1477,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="10" t="s">
         <v>48</v>
       </c>
@@ -1321,7 +1488,7 @@
       <c r="E8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="32" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -1335,7 +1502,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="11" t="s">
         <v>47</v>
       </c>
@@ -1348,7 +1515,7 @@
       <c r="E9" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="32" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -1371,7 +1538,7 @@
       <c r="E10" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="11"/>
       <c r="H10" s="8"/>
     </row>
@@ -1387,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1401,9 +1568,15 @@
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1419,9 +1592,30 @@
       <c r="F1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="G1" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1437,9 +1631,12 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="41"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1453,9 +1650,12 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="41"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1469,9 +1669,12 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="41"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1485,9 +1688,12 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="41"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1501,9 +1707,12 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="41"/>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1517,9 +1726,12 @@
       <c r="F7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="41"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1533,9 +1745,12 @@
       <c r="F8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="41"/>
       <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
@@ -1549,9 +1764,12 @@
       <c r="F9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="42"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1563,9 +1781,12 @@
       <c r="F10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1581,9 +1802,14 @@
       <c r="F11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
+      <c r="G11" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="41"/>
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1597,9 +1823,14 @@
       <c r="F12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="41"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1613,9 +1844,21 @@
       <c r="F13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="6"/>
+      <c r="K13" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="41"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1629,9 +1872,25 @@
       <c r="F14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="6"/>
+      <c r="K14" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="56"/>
+      <c r="M14" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="14">
+        <v>100105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="41"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1639,15 +1898,24 @@
         <v>22</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="37">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
+      <c r="G15" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="42"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -1661,9 +1929,12 @@
       <c r="F16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1679,9 +1950,14 @@
       <c r="F17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="42"/>
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
@@ -1695,9 +1971,18 @@
       <c r="F18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="29" t="s">
+      <c r="G18" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1713,9 +1998,12 @@
       <c r="F19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="41"/>
       <c r="B20" s="12" t="s">
         <v>36</v>
       </c>
@@ -1729,9 +2017,12 @@
       <c r="F20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="42"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
       </c>
@@ -1746,6 +2037,65 @@
       </c>
       <c r="F21" s="1">
         <v>20</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E22" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="1">
+        <v>21</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E23" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="35">
+        <v>22</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C27" s="44"/>
+    </row>
+    <row r="35" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C35" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C36" s="44">
+        <v>100105</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C37" s="44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C38" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C39" s="44">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -1765,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1779,7 +2129,7 @@
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.125" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
@@ -1798,7 +2148,7 @@
       <c r="F1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="31" t="s">
         <v>103</v>
       </c>
       <c r="H1" s="9" t="s">
@@ -1810,10 +2160,10 @@
       <c r="J1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="31" t="s">
         <v>103</v>
       </c>
       <c r="M1" s="9" t="s">
@@ -1827,7 +2177,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1842,17 +2192,17 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="6"/>
-      <c r="L2" s="35"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="10" t="s">
         <v>90</v>
       </c>
@@ -1866,19 +2216,19 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>112</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="17"/>
       <c r="J3" s="16"/>
-      <c r="L3" s="35"/>
+      <c r="L3" s="32"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="10" t="s">
         <v>91</v>
       </c>
@@ -1892,7 +2242,7 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="33" t="s">
         <v>112</v>
       </c>
       <c r="H4" s="10"/>
@@ -1900,13 +2250,13 @@
         <v>115</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="L4" s="35"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="12" t="s">
         <v>92</v>
       </c>
@@ -1919,7 +2269,7 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="33" t="s">
         <v>113</v>
       </c>
       <c r="H5" s="17" t="s">
@@ -1931,13 +2281,13 @@
       <c r="J5" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="L5" s="35"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="10" t="s">
         <v>94</v>
       </c>
@@ -1951,7 +2301,7 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="33" t="s">
         <v>107</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -1963,13 +2313,13 @@
       <c r="J6" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="11" t="s">
         <v>93</v>
       </c>
@@ -1985,10 +2335,10 @@
       <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="38" t="s">
         <v>108</v>
       </c>
       <c r="I7" s="17" t="s">
@@ -1997,13 +2347,21 @@
       <c r="J7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="6"/>
+      <c r="L7" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="10">
+        <v>4</v>
+      </c>
+      <c r="O7" s="6">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2019,17 +2377,17 @@
       <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="G8" s="35"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="6"/>
-      <c r="L8" s="35"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="10" t="s">
         <v>96</v>
       </c>
@@ -2043,17 +2401,19 @@
       <c r="F9" s="1">
         <v>8</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="6"/>
-      <c r="L9" s="35"/>
+      <c r="L9" s="33" t="s">
+        <v>113</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2067,41 +2427,41 @@
       <c r="F10" s="1">
         <v>9</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="6"/>
-      <c r="L10" s="35"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="19" t="s">
         <v>80</v>
       </c>
       <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="6"/>
-      <c r="L11" s="35"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2110,25 +2470,25 @@
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="16" t="s">
         <v>118</v>
       </c>
       <c r="F12" s="1">
         <v>11</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="43" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="10"/>
       <c r="J12" s="6"/>
-      <c r="L12" s="35"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="11" t="s">
         <v>93</v>
       </c>
@@ -2144,7 +2504,7 @@
       <c r="F13" s="1">
         <v>12</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="33" t="s">
         <v>113</v>
       </c>
       <c r="H13" s="10"/>
@@ -2152,13 +2512,21 @@
         <v>123</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="6"/>
+      <c r="L13" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="10">
+        <v>3</v>
+      </c>
+      <c r="O13" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2167,14 +2535,14 @@
       <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="16" t="s">
         <v>124</v>
       </c>
       <c r="F14" s="1">
         <v>13</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="33" t="s">
         <v>107</v>
       </c>
       <c r="H14" s="17" t="s">
@@ -2186,13 +2554,13 @@
       <c r="J14" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
@@ -2208,7 +2576,7 @@
       <c r="F15" s="1">
         <v>14</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="39" t="s">
         <v>107</v>
       </c>
       <c r="H15" s="18" t="s">
@@ -2220,7 +2588,9 @@
       <c r="J15" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="37"/>
+      <c r="L15" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="8"/>

--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
     <sheet name="登录" sheetId="3" r:id="rId2"/>
     <sheet name="厂商管理" sheetId="2" r:id="rId3"/>
     <sheet name="重点关注" sheetId="4" r:id="rId4"/>
+    <sheet name="知识库分类" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="180">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,6 +652,137 @@
       </rPr>
       <t>修改已有型号的</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库已引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有下级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除子类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除下级再删除父类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test添加I/F父类分类描述</t>
+  </si>
+  <si>
+    <t>test添加I/F子类</t>
+  </si>
+  <si>
+    <t>test添加I/F子类描述</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test修改I/F子类</t>
+  </si>
+  <si>
+    <t>test修改I/F子类描述</t>
+  </si>
+  <si>
+    <t>test_query</t>
+  </si>
+  <si>
+    <r>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>I/F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>父类分类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_a_father_type</t>
+  </si>
+  <si>
+    <t>test_add_child_type</t>
+  </si>
+  <si>
+    <t>test_update_knowledge_type</t>
+  </si>
+  <si>
+    <t>test_z_success_delete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,15 +1066,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +1096,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1277,12 +1431,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1335,7 +1500,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="54" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1356,7 +1521,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
@@ -1379,7 +1544,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
@@ -1402,7 +1567,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
@@ -1425,7 +1590,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
@@ -1452,7 +1617,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1477,7 +1642,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="10" t="s">
         <v>48</v>
       </c>
@@ -1502,7 +1667,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="11" t="s">
         <v>47</v>
       </c>
@@ -1556,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1592,30 +1757,30 @@
       <c r="F1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="46" t="s">
         <v>138</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="46" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1636,7 +1801,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1655,7 +1820,7 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1674,7 +1839,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1693,7 +1858,7 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1712,7 +1877,7 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1731,7 +1896,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1750,7 +1915,7 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
@@ -1769,7 +1934,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1951,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1802,14 +1967,14 @@
       <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="48" t="s">
         <v>136</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1825,12 +1990,12 @@
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="47" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="41"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1853,12 +2018,12 @@
       <c r="L13" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="41"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1878,7 +2043,7 @@
       <c r="K14" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="56"/>
+      <c r="L14" s="53"/>
       <c r="M14" s="14" t="s">
         <v>132</v>
       </c>
@@ -1890,7 +2055,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1915,7 +2080,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -1934,7 +2099,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="54" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1957,7 +2122,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
@@ -1982,7 +2147,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="55" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1998,12 +2163,12 @@
       <c r="F19" s="1">
         <v>18</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="52"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="12" t="s">
         <v>36</v>
       </c>
@@ -2017,12 +2182,12 @@
       <c r="F20" s="1">
         <v>19</v>
       </c>
-      <c r="G20" s="53"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="30"/>
-      <c r="I20" s="52"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="42"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
       </c>
@@ -2038,12 +2203,12 @@
       <c r="F21" s="1">
         <v>20</v>
       </c>
-      <c r="G21" s="54"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="55"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="43" t="s">
         <v>144</v>
       </c>
       <c r="F22" s="1">
@@ -2060,7 +2225,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="42" t="s">
         <v>151</v>
       </c>
       <c r="F23" s="35">
@@ -2071,30 +2236,30 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C27" s="44"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="35" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="41" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="36" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C36" s="44">
+      <c r="C36" s="41">
         <v>100105</v>
       </c>
     </row>
     <row r="37" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="41" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="41" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" spans="3:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C39" s="44">
+      <c r="C39" s="41">
         <v>274</v>
       </c>
     </row>
@@ -2116,7 +2281,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2177,7 +2342,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2202,7 +2367,7 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="10" t="s">
         <v>90</v>
       </c>
@@ -2228,7 +2393,7 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="10" t="s">
         <v>91</v>
       </c>
@@ -2256,7 +2421,7 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="12" t="s">
         <v>92</v>
       </c>
@@ -2287,7 +2452,7 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="10" t="s">
         <v>94</v>
       </c>
@@ -2319,7 +2484,7 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="11" t="s">
         <v>93</v>
       </c>
@@ -2361,7 +2526,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2387,7 +2552,7 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="10" t="s">
         <v>96</v>
       </c>
@@ -2413,7 +2578,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2437,7 +2602,7 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
@@ -2461,7 +2626,7 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="54" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2477,7 +2642,7 @@
       <c r="F12" s="1">
         <v>11</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="40" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="10"/>
@@ -2488,7 +2653,7 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="42"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="11" t="s">
         <v>93</v>
       </c>
@@ -2526,7 +2691,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="55" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2560,7 +2725,7 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="42"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
@@ -2606,4 +2771,347 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="10" max="10" width="7.125" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="6"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="6"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="6"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="55"/>
+      <c r="B5" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="6"/>
+      <c r="K5" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="56"/>
+      <c r="B6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="6"/>
+      <c r="K6" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="6"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="55"/>
+      <c r="B8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="6"/>
+      <c r="K8" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M8" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="6"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="55"/>
+      <c r="B10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="6"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="55"/>
+      <c r="B11" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="55"/>
+      <c r="B12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="56"/>
+      <c r="B13" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="186">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -783,6 +783,29 @@
   </si>
   <si>
     <t>test_z_success_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_repeat_name</t>
+  </si>
+  <si>
+    <t>test添加ui子类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test添加ui子类描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test修改分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test修改ui分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏洞信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +871,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -973,11 +996,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1096,15 +1132,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1126,6 +1153,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,7 +1542,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="62" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1521,7 +1563,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
@@ -1544,7 +1586,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
@@ -1567,7 +1609,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
@@ -1590,7 +1632,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="55"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
@@ -1617,7 +1659,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="55"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1642,7 +1684,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="10" t="s">
         <v>48</v>
       </c>
@@ -1667,7 +1709,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="11" t="s">
         <v>47</v>
       </c>
@@ -1780,7 +1822,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1801,7 +1843,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1820,7 +1862,7 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1839,7 +1881,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +1900,7 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="55"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1877,7 +1919,7 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="55"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1896,7 +1938,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1915,7 +1957,7 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
@@ -1934,7 +1976,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1951,7 +1993,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1974,7 +2016,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1995,7 +2037,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -2023,7 +2065,7 @@
       <c r="O13" s="53"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -2055,7 +2097,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -2080,7 +2122,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -2099,7 +2141,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="62" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -2122,7 +2164,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
@@ -2147,7 +2189,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2168,7 +2210,7 @@
       <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="12" t="s">
         <v>36</v>
       </c>
@@ -2187,7 +2229,7 @@
       <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
       </c>
@@ -2342,7 +2384,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2367,7 +2409,7 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="10" t="s">
         <v>90</v>
       </c>
@@ -2393,7 +2435,7 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="10" t="s">
         <v>91</v>
       </c>
@@ -2421,7 +2463,7 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="12" t="s">
         <v>92</v>
       </c>
@@ -2452,7 +2494,7 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="55"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="10" t="s">
         <v>94</v>
       </c>
@@ -2484,7 +2526,7 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="56"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="11" t="s">
         <v>93</v>
       </c>
@@ -2526,7 +2568,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2552,7 +2594,7 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="10" t="s">
         <v>96</v>
       </c>
@@ -2578,7 +2620,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2602,7 +2644,7 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
@@ -2626,7 +2668,7 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="62" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2653,7 +2695,7 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="11" t="s">
         <v>93</v>
       </c>
@@ -2691,7 +2733,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2725,7 +2767,7 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
@@ -2778,14 +2820,18 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.125" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.875" bestFit="1" customWidth="1"/>
@@ -2808,30 +2854,30 @@
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="61" t="s">
         <v>165</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="61" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2847,15 +2893,15 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="4"/>
       <c r="K2" s="32"/>
       <c r="L2" s="10"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="62" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2865,7 +2911,9 @@
         <v>12</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
@@ -2876,8 +2924,8 @@
       <c r="L3" s="10"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="63"/>
       <c r="B4" s="10" t="s">
         <v>153</v>
       </c>
@@ -2885,11 +2933,15 @@
         <v>12</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="16" t="s">
+        <v>180</v>
+      </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="33" t="s">
+        <v>175</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="I4" s="6"/>
       <c r="K4" s="32"/>
@@ -2897,14 +2949,14 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="17" t="s">
         <v>176</v>
       </c>
       <c r="E5" s="6"/>
@@ -2923,23 +2975,31 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="11" t="s">
         <v>155</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>175</v>
+      </c>
       <c r="K6" s="39" t="s">
         <v>169</v>
       </c>
@@ -2950,46 +3010,58 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
       <c r="K7" s="31"/>
       <c r="L7" s="9"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>185</v>
+      </c>
       <c r="K8" s="39" t="s">
         <v>172</v>
       </c>
@@ -3001,13 +3073,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="9"/>
@@ -3023,11 +3095,11 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10"/>
@@ -3043,11 +3115,11 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="10"/>
@@ -3063,11 +3135,11 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -3085,11 +3157,11 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="58" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>

--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="厂商管理" sheetId="2" r:id="rId3"/>
     <sheet name="重点关注" sheetId="4" r:id="rId4"/>
     <sheet name="知识库分类" sheetId="5" r:id="rId5"/>
+    <sheet name="知识库" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="247">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -807,6 +808,236 @@
   <si>
     <t>漏洞信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多项结合精确筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是本人添加不能操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_knowledge</t>
+  </si>
+  <si>
+    <t>test添加知识库标题</t>
+  </si>
+  <si>
+    <t>test添加关键字</t>
+  </si>
+  <si>
+    <t>@test知识库内容@</t>
+  </si>
+  <si>
+    <t>test来源</t>
+  </si>
+  <si>
+    <t>test_add_k_comment</t>
+  </si>
+  <si>
+    <t>test添加第一条评论</t>
+  </si>
+  <si>
+    <t>test_update_comment</t>
+  </si>
+  <si>
+    <t>test_update_knowledge</t>
+  </si>
+  <si>
+    <t>@test添加第一条评论-编辑评论@</t>
+  </si>
+  <si>
+    <t>test修改知识库标题</t>
+  </si>
+  <si>
+    <t>test修改关键字</t>
+  </si>
+  <si>
+    <t>test知识库内容修改</t>
+  </si>
+  <si>
+    <t>test来源修改</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1154,6 +1385,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1163,12 +1400,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1542,7 +1784,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1563,7 +1805,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="63"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
@@ -1586,7 +1828,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="63"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
@@ -1609,7 +1851,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="63"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
@@ -1632,7 +1874,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="63"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
@@ -1659,7 +1901,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="63"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1684,7 +1926,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="63"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="10" t="s">
         <v>48</v>
       </c>
@@ -1709,7 +1951,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="11" t="s">
         <v>47</v>
       </c>
@@ -1822,7 +2064,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1843,7 +2085,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="63"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1862,7 +2104,7 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="63"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1881,7 +2123,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="63"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +2142,7 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="63"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1919,7 +2161,7 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="63"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1938,7 +2180,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="63"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1957,7 +2199,7 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
@@ -1976,7 +2218,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1993,7 +2235,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="64" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2016,7 +2258,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="63"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -2037,7 +2279,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="63"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -2065,7 +2307,7 @@
       <c r="O13" s="53"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="63"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -2097,7 +2339,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="63"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -2122,7 +2364,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -2141,7 +2383,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -2164,7 +2406,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="64"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
@@ -2189,7 +2431,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2210,7 +2452,7 @@
       <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="63"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="12" t="s">
         <v>36</v>
       </c>
@@ -2229,7 +2471,7 @@
       <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
       </c>
@@ -2384,7 +2626,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2409,7 +2651,7 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="63"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="10" t="s">
         <v>90</v>
       </c>
@@ -2435,7 +2677,7 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="63"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="10" t="s">
         <v>91</v>
       </c>
@@ -2463,7 +2705,7 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="63"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="12" t="s">
         <v>92</v>
       </c>
@@ -2494,7 +2736,7 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="63"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="10" t="s">
         <v>94</v>
       </c>
@@ -2526,7 +2768,7 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="11" t="s">
         <v>93</v>
       </c>
@@ -2568,7 +2810,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2594,7 +2836,7 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="10" t="s">
         <v>96</v>
       </c>
@@ -2620,7 +2862,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2886,7 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
@@ -2668,7 +2910,7 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2695,7 +2937,7 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="11" t="s">
         <v>93</v>
       </c>
@@ -2733,7 +2975,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="65" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2767,7 +3009,7 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
@@ -2819,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2901,7 +3143,7 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2925,7 +3167,7 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="63"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="10" t="s">
         <v>153</v>
       </c>
@@ -2949,7 +3191,7 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="63"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="10" t="s">
         <v>154</v>
       </c>
@@ -2975,7 +3217,7 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="11" t="s">
         <v>155</v>
       </c>
@@ -2997,7 +3239,7 @@
       <c r="H6" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="62" t="s">
         <v>175</v>
       </c>
       <c r="K6" s="39" t="s">
@@ -3011,7 +3253,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="56" t="s">
@@ -3037,7 +3279,7 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
@@ -3059,7 +3301,7 @@
       <c r="H8" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="63" t="s">
         <v>185</v>
       </c>
       <c r="K8" s="39" t="s">
@@ -3073,7 +3315,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="64" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="56" t="s">
@@ -3095,7 +3337,7 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="12" t="s">
         <v>159</v>
       </c>
@@ -3115,7 +3357,7 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="63"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="12" t="s">
         <v>160</v>
       </c>
@@ -3135,7 +3377,7 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="63"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="12" t="s">
         <v>161</v>
       </c>
@@ -3157,7 +3399,7 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="13" t="s">
         <v>162</v>
       </c>
@@ -3186,4 +3428,659 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="65"/>
+      <c r="B3" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="65"/>
+      <c r="B4" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="66"/>
+      <c r="B5" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="31"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="65"/>
+      <c r="B7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="66"/>
+      <c r="B8" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="66"/>
+      <c r="B10" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="2">
+        <v>9</v>
+      </c>
+      <c r="M10" s="51"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="M11" s="70"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="71"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="66"/>
+      <c r="B12" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="2">
+        <v>11</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="52"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="M13" s="70"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="71"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="65"/>
+      <c r="B14" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2">
+        <v>13</v>
+      </c>
+      <c r="M14" s="50"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="49"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="65"/>
+      <c r="B15" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
+      <c r="M15" s="50"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="49"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="66"/>
+      <c r="B16" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="2">
+        <v>15</v>
+      </c>
+      <c r="M16" s="51"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="52"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2">
+        <v>16</v>
+      </c>
+      <c r="M17" s="70"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="71"/>
+    </row>
+    <row r="18" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="66"/>
+      <c r="B18" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="2">
+        <v>17</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="N18" s="28">
+        <v>11</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2">
+        <v>18</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="65"/>
+      <c r="B20" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="2">
+        <v>19</v>
+      </c>
+      <c r="M20" s="32"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="66"/>
+      <c r="B21" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="2">
+        <v>20</v>
+      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2">
+        <v>21</v>
+      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="65"/>
+      <c r="B23" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2">
+        <v>22</v>
+      </c>
+      <c r="M23" s="32"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="65"/>
+      <c r="B24" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2">
+        <v>23</v>
+      </c>
+      <c r="M24" s="32"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="65"/>
+      <c r="B25" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2">
+        <v>24</v>
+      </c>
+      <c r="M25" s="32"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="65"/>
+      <c r="B26" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2">
+        <v>25</v>
+      </c>
+      <c r="M26" s="32"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" s="65"/>
+      <c r="B27" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="2">
+        <v>26</v>
+      </c>
+      <c r="M27" s="32"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="66"/>
+      <c r="B28" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="1">
+        <v>27</v>
+      </c>
+      <c r="M28" s="34"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="265">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1013,18 +1013,9 @@
     <t>test来源</t>
   </si>
   <si>
-    <t>test_add_k_comment</t>
-  </si>
-  <si>
     <t>test添加第一条评论</t>
   </si>
   <si>
-    <t>test_update_comment</t>
-  </si>
-  <si>
-    <t>test_update_knowledge</t>
-  </si>
-  <si>
     <t>@test添加第一条评论-编辑评论@</t>
   </si>
   <si>
@@ -1038,6 +1029,80 @@
   </si>
   <si>
     <t>test来源修改</t>
+  </si>
+  <si>
+    <t>test_query_integration</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test_query_keywork</t>
+  </si>
+  <si>
+    <t>test_query_title</t>
+  </si>
+  <si>
+    <t>test_b_update_knowledge</t>
+  </si>
+  <si>
+    <t>test_b_update_comment</t>
+  </si>
+  <si>
+    <t>test_query_source</t>
+  </si>
+  <si>
+    <t>test_query_type</t>
+  </si>
+  <si>
+    <t>test_query_creater</t>
+  </si>
+  <si>
+    <t>test_add_z_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除知识库分类时，确保有已经被引用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化init添加知识库标题</t>
+  </si>
+  <si>
+    <t>type:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test内容为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test增加UI标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test增加UI内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test增加UI关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test增加UI来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1244,7 +1309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1391,6 +1456,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1400,17 +1476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1715,20 +1781,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>166</v>
       </c>
       <c r="B1" t="s">
         <v>167</v>
+      </c>
+      <c r="K1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K2" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" t="s">
+        <v>256</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="N2" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1875,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1805,7 +1896,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="65"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
@@ -1828,7 +1919,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="65"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
@@ -1851,7 +1942,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
@@ -1874,7 +1965,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="65"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
@@ -1901,7 +1992,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1926,7 +2017,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="10" t="s">
         <v>48</v>
       </c>
@@ -1951,7 +2042,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="66"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="11" t="s">
         <v>47</v>
       </c>
@@ -2064,7 +2155,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2085,7 +2176,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="65"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
@@ -2104,7 +2195,7 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="65"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2214,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2233,7 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="65"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -2161,7 +2252,7 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
@@ -2180,7 +2271,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
@@ -2199,7 +2290,7 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
@@ -2218,7 +2309,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="66"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -2235,7 +2326,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2258,7 +2349,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -2279,7 +2370,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -2307,7 +2398,7 @@
       <c r="O13" s="53"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -2339,7 +2430,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="65"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -2364,7 +2455,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="66"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -2383,7 +2474,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="69" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -2406,7 +2497,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="66"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
@@ -2431,7 +2522,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="70" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2452,7 +2543,7 @@
       <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="12" t="s">
         <v>36</v>
       </c>
@@ -2471,7 +2562,7 @@
       <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="66"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
       </c>
@@ -2626,7 +2717,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2651,7 +2742,7 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="65"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="10" t="s">
         <v>90</v>
       </c>
@@ -2677,7 +2768,7 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="65"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="10" t="s">
         <v>91</v>
       </c>
@@ -2705,7 +2796,7 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="12" t="s">
         <v>92</v>
       </c>
@@ -2736,7 +2827,7 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="65"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="10" t="s">
         <v>94</v>
       </c>
@@ -2768,7 +2859,7 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="11" t="s">
         <v>93</v>
       </c>
@@ -2810,7 +2901,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="69" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2836,7 +2927,7 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="10" t="s">
         <v>96</v>
       </c>
@@ -2862,7 +2953,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2886,7 +2977,7 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="66"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
@@ -2910,7 +3001,7 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="69" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2937,7 +3028,7 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="11" t="s">
         <v>93</v>
       </c>
@@ -2975,7 +3066,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="70" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -3009,7 +3100,7 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="66"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
@@ -3062,7 +3153,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3143,7 +3234,7 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3167,7 +3258,7 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="65"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="10" t="s">
         <v>153</v>
       </c>
@@ -3191,7 +3282,7 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="10" t="s">
         <v>154</v>
       </c>
@@ -3217,7 +3308,7 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="66"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="11" t="s">
         <v>155</v>
       </c>
@@ -3253,7 +3344,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="69" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="56" t="s">
@@ -3279,7 +3370,7 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="66"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
@@ -3315,7 +3406,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="69" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="56" t="s">
@@ -3337,7 +3428,7 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="12" t="s">
         <v>159</v>
       </c>
@@ -3357,7 +3448,7 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="12" t="s">
         <v>160</v>
       </c>
@@ -3377,7 +3468,7 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="12" t="s">
         <v>161</v>
       </c>
@@ -3399,7 +3490,7 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="13" t="s">
         <v>162</v>
       </c>
@@ -3435,7 +3526,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3444,6 +3535,9 @@
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
@@ -3502,7 +3596,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -3516,6 +3610,11 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="4"/>
       <c r="M2" s="31"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -3523,11 +3622,11 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="65"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="64" t="s">
         <v>192</v>
       </c>
       <c r="D3" s="10"/>
@@ -3535,18 +3634,25 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
+      <c r="G3" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="6"/>
       <c r="M3" s="32"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="65"/>
+    <row r="4" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="70"/>
       <c r="B4" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="64" t="s">
         <v>193</v>
       </c>
       <c r="D4" s="10"/>
@@ -3554,6 +3660,13 @@
       <c r="F4" s="2">
         <v>3</v>
       </c>
+      <c r="G4" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="6"/>
       <c r="M4" s="32"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -3561,7 +3674,7 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="66"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="11" t="s">
         <v>189</v>
       </c>
@@ -3575,6 +3688,21 @@
       <c r="F5" s="2">
         <v>4</v>
       </c>
+      <c r="G5" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="11">
+        <v>10</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="K5" s="72" t="s">
+        <v>262</v>
+      </c>
       <c r="M5" s="39" t="s">
         <v>234</v>
       </c>
@@ -3590,13 +3718,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="69" t="s">
         <v>194</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="65" t="s">
         <v>196</v>
       </c>
       <c r="D6" s="9"/>
@@ -3604,6 +3732,11 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="4"/>
       <c r="M6" s="31"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -3611,7 +3744,7 @@
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="12" t="s">
         <v>197</v>
       </c>
@@ -3623,6 +3756,11 @@
       <c r="F7" s="2">
         <v>6</v>
       </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="6"/>
       <c r="M7" s="32"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -3630,36 +3768,41 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="66"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="66" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="2">
         <v>7</v>
       </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="8"/>
       <c r="M8" s="34"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="69" t="s">
         <v>199</v>
       </c>
       <c r="B9" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="65" t="s">
         <v>198</v>
       </c>
       <c r="D9" s="9"/>
@@ -3667,6 +3810,11 @@
       <c r="F9" s="2">
         <v>8</v>
       </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="4"/>
       <c r="M9" s="31"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -3674,62 +3822,77 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="66"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="66" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="2">
         <v>9</v>
       </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="8"/>
       <c r="M10" s="51"/>
       <c r="N10" s="28"/>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="Q10" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>201</v>
       </c>
       <c r="B11" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="4"/>
       <c r="F11" s="2">
         <v>10</v>
       </c>
-      <c r="M11" s="70"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="4"/>
+      <c r="M11" s="67"/>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="71"/>
+      <c r="Q11" s="68"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="66"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="8"/>
       <c r="F12" s="2">
         <v>11</v>
       </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="8"/>
       <c r="M12" s="51"/>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
@@ -3737,39 +3900,49 @@
       <c r="Q12" s="52"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="69" t="s">
         <v>203</v>
       </c>
       <c r="B13" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="4"/>
       <c r="F13" s="2">
         <v>12</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="4"/>
+      <c r="M13" s="67"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
-      <c r="Q13" s="71"/>
+      <c r="Q13" s="68"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="12" t="s">
         <v>205</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="6"/>
       <c r="F14" s="2">
         <v>13</v>
       </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="6"/>
       <c r="M14" s="50"/>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
@@ -3777,18 +3950,23 @@
       <c r="Q14" s="49"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="65"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="6"/>
       <c r="F15" s="2">
         <v>14</v>
       </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="6"/>
       <c r="M15" s="50"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
@@ -3796,18 +3974,23 @@
       <c r="Q15" s="49"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="66"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="8"/>
       <c r="F16" s="2">
         <v>15</v>
       </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="8"/>
       <c r="M16" s="51"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
@@ -3815,7 +3998,7 @@
       <c r="Q16" s="52"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="69" t="s">
         <v>209</v>
       </c>
       <c r="B17" s="56" t="s">
@@ -3824,56 +4007,66 @@
       <c r="C17" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="4"/>
       <c r="F17" s="2">
         <v>16</v>
       </c>
-      <c r="M17" s="70"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="4"/>
+      <c r="M17" s="67"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
-      <c r="Q17" s="71"/>
+      <c r="Q17" s="68"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="66"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="66" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="2">
         <v>17</v>
       </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="8"/>
       <c r="M18" s="39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N18" s="28">
         <v>11</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="69" t="s">
         <v>212</v>
       </c>
       <c r="B19" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="65" t="s">
         <v>198</v>
       </c>
       <c r="D19" s="9"/>
@@ -3881,25 +4074,37 @@
       <c r="F19" s="2">
         <v>18</v>
       </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="4"/>
       <c r="M19" s="31"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
+    <row r="20" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="70"/>
       <c r="B20" s="12" t="s">
         <v>213</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="2">
         <v>19</v>
       </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="6"/>
       <c r="M20" s="32"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -3907,11 +4112,11 @@
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="66"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="66" t="s">
         <v>216</v>
       </c>
       <c r="D21" s="11"/>
@@ -3919,14 +4124,19 @@
       <c r="F21" s="2">
         <v>20</v>
       </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="8"/>
       <c r="M21" s="34"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="64" t="s">
+    <row r="22" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="69" t="s">
         <v>217</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -3935,87 +4145,128 @@
       <c r="C22" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="14" t="s">
+        <v>247</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="2">
         <v>21</v>
       </c>
-      <c r="M22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="6"/>
+      <c r="M22" s="48" t="s">
+        <v>245</v>
+      </c>
       <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="65"/>
+    <row r="23" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="70"/>
       <c r="B23" s="12" t="s">
         <v>219</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="14" t="s">
+        <v>246</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="2">
         <v>22</v>
       </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="6"/>
       <c r="M23" s="32"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+      <c r="O23" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="P23" s="30"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="65"/>
+    <row r="24" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="70"/>
       <c r="B24" s="12" t="s">
         <v>220</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="2">
         <v>23</v>
       </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="6"/>
       <c r="M24" s="32"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="17" t="s">
+        <v>245</v>
+      </c>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="65"/>
+    <row r="25" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="70"/>
       <c r="B25" s="12" t="s">
         <v>221</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="14" t="s">
+        <v>251</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="2">
         <v>24</v>
       </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="6"/>
       <c r="M25" s="32"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
+    <row r="26" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="70"/>
       <c r="B26" s="12" t="s">
         <v>222</v>
       </c>
       <c r="C26" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="14" t="s">
+        <v>252</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="2">
         <v>25</v>
       </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="6"/>
       <c r="M26" s="32"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -4023,42 +4274,62 @@
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="65"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="12" t="s">
         <v>223</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="6"/>
       <c r="F27" s="2">
         <v>26</v>
       </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="6"/>
       <c r="M27" s="32"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="66"/>
+    <row r="28" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="71"/>
       <c r="B28" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="1">
         <v>27</v>
       </c>
-      <c r="M28" s="34"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="8"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="8"/>
+      <c r="M28" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="N28" s="28">
+        <v>11</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q28" s="52"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" t="s">

--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="285">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1102,6 +1102,102 @@
   </si>
   <si>
     <t>test增加UI来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏洞信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_null_title</t>
+  </si>
+  <si>
+    <t>test_add_null_content</t>
+  </si>
+  <si>
+    <t>test标题重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加知识库标题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_repeat_title</t>
+  </si>
+  <si>
+    <t>test_add_knowledge_success</t>
+  </si>
+  <si>
+    <t>test_add_z_null_content</t>
+  </si>
+  <si>
+    <t>test清空评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_z_clear</t>
+  </si>
+  <si>
+    <t>test_add_z_comment_success</t>
+  </si>
+  <si>
+    <t>test成功添加评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test修改评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_update_comment</t>
+  </si>
+  <si>
+    <t>test_delete_comment</t>
+  </si>
+  <si>
+    <t>test修改UI标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威胁情报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test修改UI关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test修改UI来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test修改UI内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1467,6 +1563,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1476,7 +1573,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1875,7 +1971,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1896,7 +1992,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
@@ -1919,7 +2015,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="70"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
@@ -1942,7 +2038,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
@@ -1965,7 +2061,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
@@ -1992,7 +2088,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
@@ -2017,7 +2113,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="10" t="s">
         <v>48</v>
       </c>
@@ -2042,7 +2138,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="71"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="11" t="s">
         <v>47</v>
       </c>
@@ -2155,7 +2251,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2176,7 +2272,7 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
@@ -2195,7 +2291,7 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="70"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -2214,7 +2310,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -2233,7 +2329,7 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -2252,7 +2348,7 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
@@ -2271,7 +2367,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
@@ -2290,7 +2386,7 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
@@ -2309,7 +2405,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="71"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -2326,7 +2422,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="70" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2349,7 +2445,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -2370,7 +2466,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -2398,7 +2494,7 @@
       <c r="O13" s="53"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -2430,7 +2526,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -2455,7 +2551,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -2474,7 +2570,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="70" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -2497,7 +2593,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
@@ -2522,7 +2618,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="71" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2543,7 +2639,7 @@
       <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="70"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="12" t="s">
         <v>36</v>
       </c>
@@ -2562,7 +2658,7 @@
       <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
       </c>
@@ -2717,7 +2813,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2742,7 +2838,7 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="10" t="s">
         <v>90</v>
       </c>
@@ -2768,7 +2864,7 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="70"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="10" t="s">
         <v>91</v>
       </c>
@@ -2796,7 +2892,7 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="12" t="s">
         <v>92</v>
       </c>
@@ -2827,7 +2923,7 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="10" t="s">
         <v>94</v>
       </c>
@@ -2859,7 +2955,7 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="71"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="11" t="s">
         <v>93</v>
       </c>
@@ -2901,7 +2997,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2927,7 +3023,7 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="10" t="s">
         <v>96</v>
       </c>
@@ -2953,7 +3049,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2977,7 +3073,7 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +3097,7 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="70" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -3028,7 +3124,7 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="71"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="11" t="s">
         <v>93</v>
       </c>
@@ -3066,7 +3162,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="71" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -3100,7 +3196,7 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="71"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
@@ -3234,7 +3330,7 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3258,7 +3354,7 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="70"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="10" t="s">
         <v>153</v>
       </c>
@@ -3282,7 +3378,7 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="10" t="s">
         <v>154</v>
       </c>
@@ -3308,7 +3404,7 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="11" t="s">
         <v>155</v>
       </c>
@@ -3344,7 +3440,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="56" t="s">
@@ -3370,7 +3466,7 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="71"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
@@ -3406,7 +3502,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="70" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="56" t="s">
@@ -3428,7 +3524,7 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="12" t="s">
         <v>159</v>
       </c>
@@ -3448,7 +3544,7 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="70"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="12" t="s">
         <v>160</v>
       </c>
@@ -3468,7 +3564,7 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="12" t="s">
         <v>161</v>
       </c>
@@ -3490,7 +3586,7 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="71"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="13" t="s">
         <v>162</v>
       </c>
@@ -3526,7 +3622,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3534,10 +3630,12 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
@@ -3595,8 +3693,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="70" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -3606,7 +3704,9 @@
         <v>191</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
@@ -3621,8 +3721,8 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="70"/>
+    <row r="3" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="71"/>
       <c r="B3" s="10" t="s">
         <v>187</v>
       </c>
@@ -3630,7 +3730,9 @@
         <v>192</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="16" t="s">
+        <v>267</v>
+      </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
@@ -3648,7 +3750,7 @@
       <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="70"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="10" t="s">
         <v>188</v>
       </c>
@@ -3656,17 +3758,21 @@
         <v>193</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="16" t="s">
+        <v>270</v>
+      </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="M4" s="32"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -3674,25 +3780,27 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="71"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="11" t="s">
         <v>189</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="19" t="s">
+        <v>271</v>
+      </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="11">
-        <v>10</v>
+      <c r="H5" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>263</v>
@@ -3700,7 +3808,7 @@
       <c r="J5" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="69" t="s">
         <v>262</v>
       </c>
       <c r="M5" s="39" t="s">
@@ -3717,8 +3825,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="69" t="s">
+    <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="70" t="s">
         <v>194</v>
       </c>
       <c r="B6" s="56" t="s">
@@ -3728,7 +3836,9 @@
         <v>196</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="14" t="s">
+        <v>272</v>
+      </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
@@ -3743,8 +3853,8 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
+    <row r="7" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="71"/>
       <c r="B7" s="12" t="s">
         <v>197</v>
       </c>
@@ -3752,7 +3862,9 @@
         <v>198</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="14" t="s">
+        <v>274</v>
+      </c>
       <c r="F7" s="2">
         <v>6</v>
       </c>
@@ -3760,7 +3872,9 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="M7" s="32"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -3768,7 +3882,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="71"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="13" t="s">
         <v>189</v>
       </c>
@@ -3778,7 +3892,9 @@
       <c r="D8" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="14" t="s">
+        <v>275</v>
+      </c>
       <c r="F8" s="2">
         <v>7</v>
       </c>
@@ -3786,7 +3902,9 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="M8" s="34"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -3796,7 +3914,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="70" t="s">
         <v>199</v>
       </c>
       <c r="B9" s="56" t="s">
@@ -3822,7 +3940,7 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="71"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="13" t="s">
         <v>200</v>
       </c>
@@ -3832,7 +3950,9 @@
       <c r="D10" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="14" t="s">
+        <v>278</v>
+      </c>
       <c r="F10" s="2">
         <v>9</v>
       </c>
@@ -3840,7 +3960,9 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="M10" s="51"/>
       <c r="N10" s="28"/>
       <c r="O10" s="28"/>
@@ -3850,7 +3972,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="70" t="s">
         <v>201</v>
       </c>
       <c r="B11" s="56" t="s">
@@ -3875,8 +3997,8 @@
       <c r="P11" s="29"/>
       <c r="Q11" s="68"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="71"/>
+    <row r="12" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="72"/>
       <c r="B12" s="13" t="s">
         <v>200</v>
       </c>
@@ -3884,7 +4006,9 @@
         <v>29</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="14" t="s">
+        <v>279</v>
+      </c>
       <c r="F12" s="2">
         <v>11</v>
       </c>
@@ -3900,7 +4024,7 @@
       <c r="Q12" s="52"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="70" t="s">
         <v>203</v>
       </c>
       <c r="B13" s="56" t="s">
@@ -3926,7 +4050,7 @@
       <c r="Q13" s="68"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="12" t="s">
         <v>205</v>
       </c>
@@ -3950,7 +4074,7 @@
       <c r="Q14" s="49"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="12" t="s">
         <v>206</v>
       </c>
@@ -3974,7 +4098,7 @@
       <c r="Q15" s="49"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>207</v>
       </c>
@@ -3997,8 +4121,8 @@
       <c r="P16" s="28"/>
       <c r="Q16" s="52"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="69" t="s">
+    <row r="17" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="70" t="s">
         <v>209</v>
       </c>
       <c r="B17" s="56" t="s">
@@ -4012,7 +4136,9 @@
       <c r="F17" s="2">
         <v>16</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="33" t="s">
+        <v>269</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -4024,7 +4150,7 @@
       <c r="Q17" s="68"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="13" t="s">
         <v>211</v>
       </c>
@@ -4038,11 +4164,21 @@
       <c r="F18" s="2">
         <v>17</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="8"/>
+      <c r="G18" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>284</v>
+      </c>
       <c r="M18" s="39" t="s">
         <v>240</v>
       </c>
@@ -4060,7 +4196,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="70" t="s">
         <v>212</v>
       </c>
       <c r="B19" s="56" t="s">
@@ -4086,7 +4222,7 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="70"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="12" t="s">
         <v>213</v>
       </c>
@@ -4112,7 +4248,7 @@
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>215</v>
       </c>
@@ -4136,7 +4272,7 @@
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="70" t="s">
         <v>217</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -4166,7 +4302,7 @@
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="12" t="s">
         <v>219</v>
       </c>
@@ -4194,7 +4330,7 @@
       <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="12" t="s">
         <v>220</v>
       </c>
@@ -4222,7 +4358,7 @@
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="12" t="s">
         <v>221</v>
       </c>
@@ -4248,7 +4384,7 @@
       <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="70"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="12" t="s">
         <v>222</v>
       </c>
@@ -4274,7 +4410,7 @@
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="12" t="s">
         <v>223</v>
       </c>
@@ -4298,7 +4434,7 @@
       <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="13" t="s">
         <v>224</v>
       </c>

--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="295">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1199,6 +1199,39 @@
   <si>
     <t>test修改UI内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_update_repeat_title</t>
+  </si>
+  <si>
+    <t>test_delete_one</t>
+  </si>
+  <si>
+    <t>测试多选删除1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试多选删除2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_multiple_delete</t>
+  </si>
+  <si>
+    <t>test_upload</t>
+  </si>
+  <si>
+    <t>D:\\bmpObjQuery.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmpObjQuery.xml</t>
+  </si>
+  <si>
+    <t>test_download</t>
+  </si>
+  <si>
+    <t>test_delete_attachment</t>
   </si>
 </sst>
 </file>
@@ -3619,10 +3652,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3836,7 +3869,7 @@
         <v>196</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>272</v>
       </c>
       <c r="F6" s="2">
@@ -3862,7 +3895,7 @@
         <v>198</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="16" t="s">
         <v>274</v>
       </c>
       <c r="F7" s="2">
@@ -3889,10 +3922,10 @@
       <c r="C8" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="19" t="s">
         <v>275</v>
       </c>
       <c r="F8" s="2">
@@ -3947,10 +3980,10 @@
       <c r="C10" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="16" t="s">
         <v>278</v>
       </c>
       <c r="F10" s="2">
@@ -4006,7 +4039,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="19" t="s">
         <v>279</v>
       </c>
       <c r="F12" s="2">
@@ -4049,7 +4082,7 @@
       <c r="P13" s="29"/>
       <c r="Q13" s="68"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="71"/>
       <c r="B14" s="12" t="s">
         <v>205</v>
@@ -4058,11 +4091,15 @@
         <v>208</v>
       </c>
       <c r="D14" s="30"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="16" t="s">
+        <v>290</v>
+      </c>
       <c r="F14" s="2">
         <v>13</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="32" t="s">
+        <v>291</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -4073,7 +4110,7 @@
       <c r="P14" s="30"/>
       <c r="Q14" s="49"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="71"/>
       <c r="B15" s="12" t="s">
         <v>206</v>
@@ -4082,11 +4119,15 @@
         <v>208</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="16" t="s">
+        <v>293</v>
+      </c>
       <c r="F15" s="2">
         <v>14</v>
       </c>
-      <c r="G15" s="32"/>
+      <c r="G15" s="32" t="s">
+        <v>292</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -4097,7 +4138,7 @@
       <c r="P15" s="30"/>
       <c r="Q15" s="49"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>207</v>
@@ -4106,7 +4147,9 @@
         <v>208</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="19" t="s">
+        <v>294</v>
+      </c>
       <c r="F16" s="2">
         <v>15</v>
       </c>
@@ -4122,17 +4165,19 @@
       <c r="Q16" s="52"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="12" t="s">
         <v>210</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="16" t="s">
+        <v>285</v>
+      </c>
       <c r="F17" s="2">
         <v>16</v>
       </c>
@@ -4157,10 +4202,12 @@
       <c r="C18" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="F18" s="2">
         <v>17</v>
       </c>
@@ -4229,10 +4276,12 @@
       <c r="C20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="16" t="s">
+        <v>286</v>
+      </c>
       <c r="F20" s="2">
         <v>19</v>
       </c>
@@ -4247,7 +4296,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>215</v>
@@ -4256,12 +4305,14 @@
         <v>216</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="19" t="s">
+        <v>289</v>
+      </c>
       <c r="F21" s="2">
         <v>20</v>
       </c>
       <c r="G21" s="34"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="8"/>
@@ -4281,7 +4332,7 @@
       <c r="C22" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="17" t="s">
         <v>247</v>
       </c>
       <c r="E22" s="4"/>
@@ -4309,7 +4360,7 @@
       <c r="C23" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="17" t="s">
         <v>246</v>
       </c>
       <c r="E23" s="6"/>
@@ -4337,7 +4388,7 @@
       <c r="C24" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="17" t="s">
         <v>250</v>
       </c>
       <c r="E24" s="6"/>
@@ -4365,7 +4416,7 @@
       <c r="C25" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="17" t="s">
         <v>251</v>
       </c>
       <c r="E25" s="6"/>
@@ -4391,7 +4442,7 @@
       <c r="C26" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="17" t="s">
         <v>252</v>
       </c>
       <c r="E26" s="6"/>
@@ -4473,6 +4524,26 @@
       </c>
       <c r="B29" s="12" t="s">
         <v>228</v>
+      </c>
+      <c r="F29" s="2">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>287</v>
+      </c>
+      <c r="K29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F30" s="55">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/conf/cases.xlsx
+++ b/conf/cases.xlsx
@@ -3655,7 +3655,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
